--- a/app/Licenciatura_em_Organizacao_e_Gestao_da_Educacao_Distancia.xlsx
+++ b/app/Licenciatura_em_Organizacao_e_Gestao_da_Educacao_Distancia.xlsx
@@ -10,69 +10,67 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="20153794" sheetId="2" r:id="rId5"/>
-    <sheet name="20154481" sheetId="3" r:id="rId6"/>
-    <sheet name="20153789" sheetId="4" r:id="rId7"/>
-    <sheet name="20153786" sheetId="5" r:id="rId8"/>
-    <sheet name="20153771" sheetId="6" r:id="rId9"/>
-    <sheet name="20153765" sheetId="7" r:id="rId10"/>
-    <sheet name="20153753" sheetId="8" r:id="rId11"/>
-    <sheet name="20153756" sheetId="9" r:id="rId12"/>
-    <sheet name="20153769" sheetId="10" r:id="rId13"/>
-    <sheet name="20153793" sheetId="11" r:id="rId14"/>
-    <sheet name="20153779" sheetId="12" r:id="rId15"/>
-    <sheet name="20153754" sheetId="13" r:id="rId16"/>
-    <sheet name="20153767" sheetId="14" r:id="rId17"/>
-    <sheet name="20153784" sheetId="15" r:id="rId18"/>
-    <sheet name="20153791" sheetId="16" r:id="rId19"/>
-    <sheet name="20153799" sheetId="17" r:id="rId20"/>
-    <sheet name="20153757" sheetId="18" r:id="rId21"/>
-    <sheet name="20153785" sheetId="19" r:id="rId22"/>
-    <sheet name="20153766" sheetId="20" r:id="rId23"/>
-    <sheet name="20153787" sheetId="21" r:id="rId24"/>
-    <sheet name="20153801" sheetId="22" r:id="rId25"/>
-    <sheet name="20153783" sheetId="23" r:id="rId26"/>
-    <sheet name="20153749" sheetId="24" r:id="rId27"/>
-    <sheet name="20153780" sheetId="25" r:id="rId28"/>
-    <sheet name="20153797" sheetId="26" r:id="rId29"/>
-    <sheet name="20153790" sheetId="27" r:id="rId30"/>
-    <sheet name="20153798" sheetId="28" r:id="rId31"/>
-    <sheet name="20153800" sheetId="29" r:id="rId32"/>
-    <sheet name="20153788" sheetId="30" r:id="rId33"/>
-    <sheet name="20153774" sheetId="31" r:id="rId34"/>
-    <sheet name="20153781" sheetId="32" r:id="rId35"/>
-    <sheet name="20153804" sheetId="33" r:id="rId36"/>
-    <sheet name="20153792" sheetId="34" r:id="rId37"/>
-    <sheet name="20153759" sheetId="35" r:id="rId38"/>
-    <sheet name="20153770" sheetId="36" r:id="rId39"/>
-    <sheet name="20154480" sheetId="37" r:id="rId40"/>
-    <sheet name="20153772" sheetId="38" r:id="rId41"/>
-    <sheet name="20153803" sheetId="39" r:id="rId42"/>
-    <sheet name="20153795" sheetId="40" r:id="rId43"/>
-    <sheet name="20153768" sheetId="41" r:id="rId44"/>
-    <sheet name="20153760" sheetId="42" r:id="rId45"/>
-    <sheet name="20153758" sheetId="43" r:id="rId46"/>
-    <sheet name="20153806" sheetId="44" r:id="rId47"/>
-    <sheet name="20153796" sheetId="45" r:id="rId48"/>
-    <sheet name="20153748" sheetId="46" r:id="rId49"/>
-    <sheet name="20153763" sheetId="47" r:id="rId50"/>
-    <sheet name="20153752" sheetId="48" r:id="rId51"/>
-    <sheet name="20153762" sheetId="49" r:id="rId52"/>
-    <sheet name="20153777" sheetId="50" r:id="rId53"/>
-    <sheet name="20153747" sheetId="51" r:id="rId54"/>
-    <sheet name="20153764" sheetId="52" r:id="rId55"/>
-    <sheet name="20153802" sheetId="53" r:id="rId56"/>
-    <sheet name="20153805" sheetId="54" r:id="rId57"/>
-    <sheet name="20153775" sheetId="55" r:id="rId58"/>
-    <sheet name="20153750" sheetId="56" r:id="rId59"/>
-    <sheet name="20153755" sheetId="57" r:id="rId60"/>
-    <sheet name="20153782" sheetId="58" r:id="rId61"/>
-    <sheet name="20153776" sheetId="59" r:id="rId62"/>
-    <sheet name="20153778" sheetId="60" r:id="rId63"/>
-    <sheet name="20153773" sheetId="61" r:id="rId64"/>
-    <sheet name="20153761" sheetId="62" r:id="rId65"/>
-    <sheet name="20153751" sheetId="63" r:id="rId66"/>
-    <sheet name="Sheet2" sheetId="64" r:id="rId67"/>
-    <sheet name="Sheet3" sheetId="65" r:id="rId68"/>
+    <sheet name="20153789" sheetId="3" r:id="rId6"/>
+    <sheet name="20153786" sheetId="4" r:id="rId7"/>
+    <sheet name="20153771" sheetId="5" r:id="rId8"/>
+    <sheet name="20153765" sheetId="6" r:id="rId9"/>
+    <sheet name="20153753" sheetId="7" r:id="rId10"/>
+    <sheet name="20153756" sheetId="8" r:id="rId11"/>
+    <sheet name="20153769" sheetId="9" r:id="rId12"/>
+    <sheet name="20153793" sheetId="10" r:id="rId13"/>
+    <sheet name="20153779" sheetId="11" r:id="rId14"/>
+    <sheet name="20153754" sheetId="12" r:id="rId15"/>
+    <sheet name="20153767" sheetId="13" r:id="rId16"/>
+    <sheet name="20153784" sheetId="14" r:id="rId17"/>
+    <sheet name="20153791" sheetId="15" r:id="rId18"/>
+    <sheet name="20153799" sheetId="16" r:id="rId19"/>
+    <sheet name="20153757" sheetId="17" r:id="rId20"/>
+    <sheet name="20153785" sheetId="18" r:id="rId21"/>
+    <sheet name="20153766" sheetId="19" r:id="rId22"/>
+    <sheet name="20153787" sheetId="20" r:id="rId23"/>
+    <sheet name="20153801" sheetId="21" r:id="rId24"/>
+    <sheet name="20153783" sheetId="22" r:id="rId25"/>
+    <sheet name="20153749" sheetId="23" r:id="rId26"/>
+    <sheet name="20153780" sheetId="24" r:id="rId27"/>
+    <sheet name="20153797" sheetId="25" r:id="rId28"/>
+    <sheet name="20153790" sheetId="26" r:id="rId29"/>
+    <sheet name="20153798" sheetId="27" r:id="rId30"/>
+    <sheet name="20153800" sheetId="28" r:id="rId31"/>
+    <sheet name="20153788" sheetId="29" r:id="rId32"/>
+    <sheet name="20153774" sheetId="30" r:id="rId33"/>
+    <sheet name="20153781" sheetId="31" r:id="rId34"/>
+    <sheet name="20153804" sheetId="32" r:id="rId35"/>
+    <sheet name="20153792" sheetId="33" r:id="rId36"/>
+    <sheet name="20153759" sheetId="34" r:id="rId37"/>
+    <sheet name="20153770" sheetId="35" r:id="rId38"/>
+    <sheet name="20153772" sheetId="36" r:id="rId39"/>
+    <sheet name="20153803" sheetId="37" r:id="rId40"/>
+    <sheet name="20153795" sheetId="38" r:id="rId41"/>
+    <sheet name="20153768" sheetId="39" r:id="rId42"/>
+    <sheet name="20153760" sheetId="40" r:id="rId43"/>
+    <sheet name="20153758" sheetId="41" r:id="rId44"/>
+    <sheet name="20153806" sheetId="42" r:id="rId45"/>
+    <sheet name="20153796" sheetId="43" r:id="rId46"/>
+    <sheet name="20153748" sheetId="44" r:id="rId47"/>
+    <sheet name="20153763" sheetId="45" r:id="rId48"/>
+    <sheet name="20153752" sheetId="46" r:id="rId49"/>
+    <sheet name="20153762" sheetId="47" r:id="rId50"/>
+    <sheet name="20153777" sheetId="48" r:id="rId51"/>
+    <sheet name="20153747" sheetId="49" r:id="rId52"/>
+    <sheet name="20153764" sheetId="50" r:id="rId53"/>
+    <sheet name="20153802" sheetId="51" r:id="rId54"/>
+    <sheet name="20153805" sheetId="52" r:id="rId55"/>
+    <sheet name="20153775" sheetId="53" r:id="rId56"/>
+    <sheet name="20153750" sheetId="54" r:id="rId57"/>
+    <sheet name="20153755" sheetId="55" r:id="rId58"/>
+    <sheet name="20153782" sheetId="56" r:id="rId59"/>
+    <sheet name="20153776" sheetId="57" r:id="rId60"/>
+    <sheet name="20153778" sheetId="58" r:id="rId61"/>
+    <sheet name="20153773" sheetId="59" r:id="rId62"/>
+    <sheet name="20153761" sheetId="60" r:id="rId63"/>
+    <sheet name="20153751" sheetId="61" r:id="rId64"/>
+    <sheet name="Sheet2" sheetId="62" r:id="rId65"/>
+    <sheet name="Sheet3" sheetId="63" r:id="rId66"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -80,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -229,9 +227,6 @@
     <t>Cristina Albino Mondlane</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -253,15 +248,6 @@
     <t>Escola Secundaria do Xai-Xai</t>
   </si>
   <si>
-    <t>Vilanculo</t>
-  </si>
-  <si>
-    <t>Sabastiana</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Vernijo</t>
   </si>
   <si>
@@ -277,9 +263,6 @@
     <t>Felizmina Pequenino</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110100177597Q</t>
   </si>
   <si>
@@ -304,9 +287,6 @@
     <t>Angelina Mustele Mucar</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>Passaporte</t>
   </si>
   <si>
@@ -358,9 +338,6 @@
     <t>Zulmira Constantino</t>
   </si>
   <si>
-    <t>Distrito de Moamba</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -388,9 +365,6 @@
     <t>Luisa Mandiranga</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110301623087J</t>
   </si>
   <si>
@@ -415,9 +389,6 @@
     <t>Amelia Antonio Macambaco</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>090202282753P</t>
   </si>
   <si>
@@ -442,9 +413,6 @@
     <t>Paulina Vasco</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100101028071F</t>
   </si>
   <si>
@@ -469,9 +437,6 @@
     <t>Marta  Auzo  Nhamposse</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>110101230805Q</t>
   </si>
   <si>
@@ -538,9 +503,6 @@
     <t>Atalia Marcos Cumbe</t>
   </si>
   <si>
-    <t>Distrito de Magude</t>
-  </si>
-  <si>
     <t>100101026947S.</t>
   </si>
   <si>
@@ -562,9 +524,6 @@
     <t>Paulina Fernando</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -586,9 +545,6 @@
     <t>Celeste Maputumane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110504073301N</t>
   </si>
   <si>
@@ -715,9 +671,6 @@
     <t>Catarina Dos Santos Mite</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100393037Q</t>
   </si>
   <si>
@@ -739,9 +692,6 @@
     <t>Rosa Mussa Agi</t>
   </si>
   <si>
-    <t>Distrito de Namaacha</t>
-  </si>
-  <si>
     <t>110502715632F</t>
   </si>
   <si>
@@ -766,9 +716,6 @@
     <t>Elina Abilio Tila</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110500632413P</t>
   </si>
   <si>
@@ -883,9 +830,6 @@
     <t>Irene Boavida Muchanga</t>
   </si>
   <si>
-    <t>Distrito de Guijá</t>
-  </si>
-  <si>
     <t>+258829731916</t>
   </si>
   <si>
@@ -907,9 +851,6 @@
     <t xml:space="preserve">Arlinda Simeao </t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>080101211396J</t>
   </si>
   <si>
@@ -1045,12 +986,6 @@
     <t>+258828376244</t>
   </si>
   <si>
-    <t>Macuácua</t>
-  </si>
-  <si>
-    <t>Manuel Victorino</t>
-  </si>
-  <si>
     <t>Machava</t>
   </si>
   <si>
@@ -1108,9 +1043,6 @@
     <t>Regina Mate</t>
   </si>
   <si>
-    <t>Distrito Municipal Kanyaka</t>
-  </si>
-  <si>
     <t>110104410563B</t>
   </si>
   <si>
@@ -1517,9 +1449,6 @@
   </si>
   <si>
     <t>Angelina Jeremias Banze</t>
-  </si>
-  <si>
-    <t>Distrito de Xai-Xai</t>
   </si>
   <si>
     <t>090100301234S</t>
@@ -2839,7 +2768,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153769</v>
+        <v>20153793</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2863,7 +2792,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2879,7 +2808,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2895,7 +2824,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2911,7 +2840,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2927,7 +2856,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2942,9 +2871,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2952,7 +2879,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2963,7 +2890,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2972,7 +2899,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2984,7 +2911,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2992,7 +2919,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3088,7 +3015,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3115,7 +3042,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3131,7 +3058,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3434,7 +3361,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153793</v>
+        <v>20153779</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3458,7 +3385,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3474,7 +3401,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3490,7 +3417,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3506,7 +3433,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3522,7 +3449,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3537,9 +3464,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3547,7 +3472,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3558,7 +3483,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3567,7 +3492,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3579,7 +3504,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3587,7 +3512,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3683,7 +3608,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3726,7 +3651,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4029,7 +3954,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153779</v>
+        <v>20153754</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4053,7 +3978,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4069,7 +3994,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4085,7 +4010,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4101,7 +4026,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4117,7 +4042,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4132,9 +4057,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4142,7 +4065,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4153,7 +4076,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4162,7 +4085,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4174,7 +4097,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4182,7 +4105,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4278,7 +4201,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4305,7 +4228,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4321,7 +4244,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4624,7 +4547,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153754</v>
+        <v>20153767</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4648,7 +4571,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4664,7 +4587,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4680,7 +4603,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4696,7 +4619,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4712,7 +4635,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4727,9 +4650,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4737,7 +4658,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4748,7 +4669,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4757,7 +4678,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4769,7 +4690,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4777,7 +4698,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4873,7 +4794,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4900,7 +4821,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4916,7 +4837,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5219,7 +5140,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153767</v>
+        <v>20153784</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5243,7 +5164,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5259,7 +5180,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5275,7 +5196,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5291,7 +5212,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5307,7 +5228,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5322,9 +5243,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>152</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5332,7 +5251,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5343,7 +5262,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5352,7 +5271,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5364,15 +5283,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>153</v>
+      <c r="H17" s="20">
+        <v>6164665</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5468,7 +5387,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5495,7 +5414,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5511,7 +5430,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5814,7 +5733,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153784</v>
+        <v>20153791</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5838,7 +5757,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5854,7 +5773,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5870,7 +5789,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5886,7 +5805,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5902,7 +5821,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5917,9 +5836,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5927,7 +5844,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5938,7 +5855,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5947,7 +5864,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5959,15 +5876,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>6164665</v>
+      <c r="H17" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6063,7 +5980,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6090,7 +6007,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6106,7 +6023,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6409,7 +6326,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153791</v>
+        <v>20153799</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6433,7 +6350,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6449,7 +6366,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6465,7 +6382,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6481,7 +6398,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6497,7 +6414,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6512,9 +6429,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6522,7 +6437,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6533,7 +6448,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6542,7 +6457,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6554,7 +6469,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6562,7 +6477,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6658,7 +6573,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6685,7 +6600,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6701,7 +6616,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7004,7 +6919,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153799</v>
+        <v>20153757</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7028,7 +6943,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7044,7 +6959,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7060,7 +6975,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7076,7 +6991,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7092,7 +7007,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7107,9 +7022,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7117,7 +7030,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7128,7 +7041,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7137,7 +7050,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7149,7 +7062,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7157,7 +7070,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7253,7 +7166,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7280,7 +7193,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7296,7 +7209,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7599,7 +7512,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153757</v>
+        <v>20153785</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7623,7 +7536,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7639,7 +7552,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7655,7 +7568,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7671,7 +7584,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7687,7 +7600,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7702,9 +7615,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7712,7 +7623,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7723,7 +7634,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7732,7 +7643,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7744,7 +7655,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7752,7 +7663,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7848,7 +7759,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7891,7 +7802,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8194,7 +8105,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153785</v>
+        <v>20153766</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8218,7 +8129,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8234,7 +8145,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8250,7 +8161,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8266,7 +8177,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8282,7 +8193,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8297,9 +8208,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8307,7 +8216,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8318,7 +8227,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8327,7 +8236,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8339,7 +8248,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8347,7 +8256,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8443,7 +8352,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8470,7 +8379,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8486,7 +8395,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8892,9 +8801,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8902,7 +8809,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8913,7 +8820,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8922,7 +8829,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8934,7 +8841,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8942,7 +8849,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9038,7 +8945,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9081,7 +8988,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9384,7 +9291,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153766</v>
+        <v>20153787</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9408,7 +9315,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9424,7 +9331,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9440,7 +9347,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9456,7 +9363,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9472,7 +9379,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9487,9 +9394,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9497,7 +9402,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9508,7 +9413,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9517,7 +9422,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9529,7 +9434,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9537,7 +9442,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9633,7 +9538,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9660,7 +9565,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9676,7 +9581,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9979,7 +9884,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153787</v>
+        <v>20153801</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10003,7 +9908,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10019,7 +9924,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10035,7 +9940,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10051,7 +9956,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10067,7 +9972,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10082,9 +9987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10092,7 +9995,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10103,7 +10006,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10112,7 +10015,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10124,7 +10027,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10132,7 +10035,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10228,7 +10131,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10255,7 +10158,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10271,7 +10174,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10574,7 +10477,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153801</v>
+        <v>20153783</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10598,7 +10501,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10614,7 +10517,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10630,7 +10533,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10646,7 +10549,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10662,7 +10565,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10677,9 +10580,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10687,7 +10588,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10698,7 +10599,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10707,7 +10608,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10719,7 +10620,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10727,7 +10628,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10823,7 +10724,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10850,7 +10751,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10866,7 +10767,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11169,7 +11070,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153783</v>
+        <v>20153749</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11193,7 +11094,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11209,7 +11110,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11225,7 +11126,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11241,7 +11142,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11257,7 +11158,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11272,9 +11173,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>219</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11282,7 +11181,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11293,7 +11192,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11302,7 +11201,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11314,7 +11213,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11322,7 +11221,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11418,7 +11317,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11445,7 +11344,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11461,7 +11360,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11764,7 +11663,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153749</v>
+        <v>20153780</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11788,7 +11687,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11804,7 +11703,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11820,7 +11719,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11836,7 +11735,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11852,7 +11751,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11867,9 +11766,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11877,7 +11774,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11888,7 +11785,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11897,7 +11794,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11909,7 +11806,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11917,7 +11814,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12013,7 +11910,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12040,7 +11937,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12056,7 +11953,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12359,7 +12256,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153780</v>
+        <v>20153797</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12383,7 +12280,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12399,7 +12296,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12415,7 +12312,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12431,7 +12328,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12447,7 +12344,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12462,9 +12359,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12472,7 +12367,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12483,7 +12378,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12492,7 +12387,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12504,7 +12399,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12512,7 +12407,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12608,7 +12503,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12635,7 +12530,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12651,7 +12546,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12954,7 +12849,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153797</v>
+        <v>20153790</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12978,7 +12873,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12994,7 +12889,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13010,7 +12905,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13026,7 +12921,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13042,7 +12937,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13057,9 +12952,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13067,7 +12960,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13078,7 +12971,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13087,7 +12980,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13099,7 +12992,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13107,7 +13000,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13203,7 +13096,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13230,7 +13123,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13246,7 +13139,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13549,7 +13442,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153790</v>
+        <v>20153798</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13573,7 +13466,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13589,7 +13482,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13605,7 +13498,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13621,7 +13514,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13637,7 +13530,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13652,9 +13545,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13662,7 +13553,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13673,7 +13564,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13682,7 +13573,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13694,7 +13585,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13702,7 +13593,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13798,7 +13689,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13825,7 +13716,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13841,7 +13732,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14144,7 +14035,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153798</v>
+        <v>20153800</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14168,7 +14059,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14184,7 +14075,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14200,7 +14091,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14216,7 +14107,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14232,7 +14123,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14247,9 +14138,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14257,7 +14146,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14268,7 +14157,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14277,7 +14166,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14289,15 +14178,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>259</v>
+      <c r="H17" s="20">
+        <v>88016693</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14393,7 +14282,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14420,7 +14309,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14436,7 +14325,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14739,7 +14628,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153800</v>
+        <v>20153788</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14763,7 +14652,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14779,7 +14668,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14795,7 +14684,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14811,7 +14700,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14827,7 +14716,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14842,9 +14731,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>267</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14852,7 +14739,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14863,7 +14750,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14872,7 +14759,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14884,15 +14771,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>88016693</v>
+      <c r="H17" s="20" t="s">
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14988,7 +14875,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15015,7 +14902,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15031,7 +14918,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15282,7 +15169,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -15332,7 +15221,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154481</v>
+        <v>20153789</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15356,7 +15245,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15372,7 +15261,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15387,7 +15276,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15401,7 +15292,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15415,7 +15308,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15436,7 +15331,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15445,14 +15342,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15462,13 +15363,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -15563,7 +15468,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15589,7 +15494,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -15603,7 +15510,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -15905,7 +15814,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153788</v>
+        <v>20153774</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15929,7 +15838,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15945,7 +15854,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15961,7 +15870,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15977,7 +15886,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15993,7 +15902,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16008,9 +15917,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>275</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16018,7 +15925,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16029,7 +15936,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16038,7 +15945,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16050,15 +15957,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>276</v>
+      <c r="H17" s="20">
+        <v>100104163948</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16154,7 +16061,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16181,7 +16088,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16197,7 +16104,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16500,7 +16407,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153774</v>
+        <v>20153781</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16524,7 +16431,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16540,7 +16447,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16556,7 +16463,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16572,7 +16479,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16588,7 +16495,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16603,9 +16510,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16613,7 +16518,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16624,7 +16529,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16633,7 +16538,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16645,15 +16550,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>100104163948</v>
+      <c r="H17" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16749,7 +16654,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16776,7 +16681,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2002</v>
+        <v>1983</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16792,7 +16697,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17095,7 +17000,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153781</v>
+        <v>20153804</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17119,7 +17024,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17135,7 +17040,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17151,7 +17056,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17167,7 +17072,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17183,7 +17088,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17198,9 +17103,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17208,7 +17111,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17219,7 +17122,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17228,7 +17131,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17240,7 +17143,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17248,7 +17151,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17344,7 +17247,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17371,7 +17274,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1983</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17387,7 +17290,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17690,7 +17593,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153804</v>
+        <v>20153792</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17714,7 +17617,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17730,7 +17633,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17746,7 +17649,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17762,7 +17665,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17778,7 +17681,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17793,9 +17696,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17803,7 +17704,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17814,7 +17715,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17823,7 +17724,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17835,7 +17736,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17843,7 +17744,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17939,7 +17840,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17966,7 +17867,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17982,7 +17883,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18285,7 +18186,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153792</v>
+        <v>20153759</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18309,7 +18210,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18325,7 +18226,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18341,7 +18242,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18357,7 +18258,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18373,7 +18274,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18388,9 +18289,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18398,7 +18297,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18409,7 +18308,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18418,7 +18317,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18430,7 +18329,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18438,7 +18337,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18534,7 +18433,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18577,7 +18476,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18880,7 +18779,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153759</v>
+        <v>20153770</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18904,7 +18803,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18920,7 +18819,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18936,7 +18835,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18952,7 +18851,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18968,7 +18867,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18983,9 +18882,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18993,7 +18890,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19004,7 +18901,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19013,7 +18910,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19025,7 +18922,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19033,7 +18930,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19129,7 +19026,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19156,7 +19053,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19172,7 +19069,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19475,7 +19372,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153770</v>
+        <v>20153772</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19499,7 +19396,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19515,7 +19412,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19531,7 +19428,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19547,7 +19444,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19563,7 +19460,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19578,9 +19475,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19588,7 +19483,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19599,7 +19494,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19608,7 +19503,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19620,7 +19515,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19628,7 +19523,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19724,7 +19619,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19751,7 +19646,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19767,7 +19662,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20018,7 +19913,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20068,7 +19965,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154480</v>
+        <v>20153803</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20092,7 +19989,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20108,7 +20005,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20123,7 +20020,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>311</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -20137,7 +20036,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>312</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20151,7 +20052,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>313</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20172,7 +20075,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -20181,14 +20086,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -20198,13 +20107,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -20299,7 +20212,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20325,7 +20238,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2010</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -20339,7 +20254,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -20641,7 +20558,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153772</v>
+        <v>20153795</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20665,7 +20582,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20681,7 +20598,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20697,7 +20614,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20713,7 +20630,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20729,7 +20646,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20744,9 +20661,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20754,7 +20669,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20765,7 +20680,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20774,7 +20689,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20786,7 +20701,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20794,7 +20709,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20890,7 +20805,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20917,7 +20832,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20933,7 +20848,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>323</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21236,7 +21151,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153803</v>
+        <v>20153768</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21260,7 +21175,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21276,7 +21191,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21292,7 +21207,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21308,7 +21223,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21324,7 +21239,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21339,9 +21254,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21349,7 +21262,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21360,7 +21273,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21369,7 +21282,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21381,15 +21294,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>335</v>
+      <c r="H17" s="20">
+        <v>4131733</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21485,7 +21398,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21512,7 +21425,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21528,7 +21441,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>178</v>
+        <v>330</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21831,7 +21744,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153789</v>
+        <v>20153786</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21855,7 +21768,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21871,7 +21784,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21887,7 +21800,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21903,7 +21816,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21919,7 +21832,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21934,9 +21847,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21944,7 +21855,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21955,7 +21866,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21964,7 +21875,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21976,7 +21887,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21984,7 +21895,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22080,7 +21991,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22107,7 +22018,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22123,7 +22034,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22426,7 +22337,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153795</v>
+        <v>20153760</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22450,7 +22361,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22466,7 +22377,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22482,7 +22393,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22498,7 +22409,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22514,7 +22425,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22529,9 +22440,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>342</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22539,7 +22448,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22550,7 +22459,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22559,7 +22468,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22571,7 +22480,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22579,7 +22488,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22675,7 +22584,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22718,7 +22627,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23021,7 +22930,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153768</v>
+        <v>20153758</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23045,7 +22954,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23061,7 +22970,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23077,7 +22986,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23093,7 +23002,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23109,7 +23018,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23124,9 +23033,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23134,7 +23041,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23145,7 +23052,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23154,7 +23061,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23166,7 +23073,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23174,7 +23081,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20">
-        <v>4131733</v>
+        <v>2704090</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23270,7 +23177,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23297,7 +23204,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23313,7 +23220,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>352</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23616,7 +23523,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153760</v>
+        <v>20153806</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23640,7 +23547,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23656,7 +23563,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23672,7 +23579,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23688,7 +23595,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23704,7 +23611,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23719,9 +23626,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23729,7 +23634,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23740,7 +23645,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23749,7 +23654,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23761,7 +23666,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23769,7 +23674,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23865,7 +23770,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23892,7 +23797,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23908,7 +23813,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24211,7 +24116,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153758</v>
+        <v>20153796</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24235,7 +24140,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24251,7 +24156,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24267,7 +24172,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24283,7 +24188,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24299,7 +24204,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24314,9 +24219,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24324,7 +24227,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24335,7 +24238,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24344,7 +24247,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24356,15 +24259,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>2704090</v>
+      <c r="H17" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24460,7 +24363,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24487,7 +24390,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24503,7 +24406,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24806,7 +24709,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153806</v>
+        <v>20153748</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24830,7 +24733,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24846,7 +24749,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24862,7 +24765,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24878,7 +24781,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24894,7 +24797,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24909,9 +24812,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>275</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24919,7 +24820,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24930,7 +24831,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24939,7 +24840,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24951,7 +24852,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24959,7 +24860,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25055,7 +24956,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25082,7 +24983,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25098,7 +24999,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>373</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25401,7 +25302,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153796</v>
+        <v>20153763</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25425,7 +25326,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25441,7 +25342,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25457,7 +25358,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25473,7 +25374,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25489,7 +25390,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25504,9 +25405,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25514,7 +25413,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25525,7 +25424,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25534,7 +25433,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25546,7 +25445,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25554,7 +25453,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25650,7 +25549,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25677,7 +25576,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25693,7 +25592,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25996,7 +25895,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153748</v>
+        <v>20153752</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26020,7 +25919,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26036,7 +25935,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26052,7 +25951,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26068,7 +25967,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26084,7 +25983,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26099,9 +25998,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26109,7 +26006,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26120,7 +26017,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26129,7 +26026,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26141,15 +26038,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>386</v>
+      <c r="H17" s="20">
+        <v>110100785603</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26245,7 +26142,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26272,7 +26169,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26288,7 +26185,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>96</v>
+        <v>379</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26591,7 +26488,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153763</v>
+        <v>20153762</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26615,7 +26512,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26631,7 +26528,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26647,7 +26544,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26663,7 +26560,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26679,7 +26576,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26694,9 +26591,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>342</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26704,7 +26599,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26715,7 +26610,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26724,7 +26619,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26736,7 +26631,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26744,7 +26639,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26840,7 +26735,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26867,7 +26762,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26883,7 +26778,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27186,7 +27081,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153752</v>
+        <v>20153777</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27210,7 +27105,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27226,7 +27121,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27242,7 +27137,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27258,7 +27153,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27274,7 +27169,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27289,9 +27184,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27299,7 +27192,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27310,7 +27203,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27319,7 +27212,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27331,7 +27224,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27339,7 +27232,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20">
-        <v>110100785603</v>
+        <v>2196321</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27435,7 +27328,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27462,7 +27355,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -27478,7 +27371,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>401</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27781,7 +27674,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153762</v>
+        <v>20153747</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27805,7 +27698,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27821,7 +27714,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27837,7 +27730,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27853,7 +27746,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27869,7 +27762,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27884,9 +27777,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27894,7 +27785,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27905,7 +27796,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27914,7 +27805,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27926,7 +27817,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27934,7 +27825,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28030,7 +27921,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28057,7 +27948,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -28073,7 +27964,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>323</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28376,7 +28267,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153786</v>
+        <v>20153771</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -28400,7 +28291,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28416,7 +28307,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28432,7 +28323,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28448,7 +28339,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28464,7 +28355,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28479,9 +28370,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28489,7 +28378,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28500,7 +28389,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28509,7 +28398,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28521,7 +28410,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28529,7 +28418,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28625,7 +28514,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28652,7 +28541,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -28668,7 +28557,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28971,7 +28860,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153777</v>
+        <v>20153764</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -28995,7 +28884,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29011,7 +28900,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29027,7 +28916,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29043,7 +28932,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29059,7 +28948,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29074,9 +28963,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29084,7 +28971,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29095,7 +28982,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29104,7 +28991,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29116,15 +29003,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>2196321</v>
+      <c r="H17" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29220,7 +29107,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29247,7 +29134,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29263,7 +29150,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>406</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29566,7 +29453,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153747</v>
+        <v>20153802</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29590,7 +29477,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29606,7 +29493,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29622,7 +29509,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29638,7 +29525,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29654,7 +29541,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29669,9 +29556,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29679,7 +29564,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29690,7 +29575,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29699,7 +29584,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29711,7 +29596,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>412</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29719,7 +29604,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29815,7 +29700,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29842,7 +29727,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29858,7 +29743,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>345</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30161,7 +30046,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153764</v>
+        <v>20153805</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -30185,7 +30070,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30201,7 +30086,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30217,7 +30102,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30233,7 +30118,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30249,7 +30134,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30264,9 +30149,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30274,7 +30157,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30285,7 +30168,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30294,7 +30177,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30306,7 +30189,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30314,7 +30197,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30410,7 +30293,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30437,7 +30320,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -30453,7 +30336,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30756,7 +30639,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153802</v>
+        <v>20153775</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -30780,7 +30663,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30796,7 +30679,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30812,7 +30695,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30828,7 +30711,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30844,7 +30727,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30859,9 +30742,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30869,7 +30750,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30880,7 +30761,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30889,7 +30770,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30901,7 +30782,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>434</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30909,7 +30790,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31005,7 +30886,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31048,7 +30929,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31351,7 +31232,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153805</v>
+        <v>20153750</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -31375,7 +31256,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31391,7 +31272,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31407,7 +31288,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31423,7 +31304,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31439,7 +31320,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31454,9 +31335,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31464,7 +31343,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31475,7 +31354,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31484,7 +31363,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31496,7 +31375,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31504,7 +31383,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31600,7 +31479,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31627,7 +31506,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -31643,7 +31522,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31946,7 +31825,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153775</v>
+        <v>20153755</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -31970,7 +31849,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31986,7 +31865,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32002,7 +31881,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32018,7 +31897,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32034,7 +31913,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32049,9 +31928,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32059,7 +31936,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32070,7 +31947,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32079,7 +31956,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32091,7 +31968,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32099,7 +31976,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32195,7 +32072,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32222,7 +32099,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -32238,7 +32115,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>444</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32541,7 +32418,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153750</v>
+        <v>20153782</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -32565,7 +32442,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32581,7 +32458,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32597,7 +32474,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32613,7 +32490,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32629,7 +32506,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32644,9 +32521,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32654,7 +32529,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32665,7 +32540,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32674,7 +32549,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32686,7 +32561,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32694,7 +32569,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32790,7 +32665,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32817,7 +32692,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -32833,7 +32708,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33136,7 +33011,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153755</v>
+        <v>20153776</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -33160,7 +33035,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33176,7 +33051,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33192,7 +33067,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33208,7 +33083,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33224,7 +33099,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33239,9 +33114,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33249,7 +33122,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33260,7 +33133,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33269,7 +33142,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33281,7 +33154,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33289,7 +33162,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33385,7 +33258,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33412,7 +33285,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -33428,7 +33301,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>466</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33731,7 +33604,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153782</v>
+        <v>20153778</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -33755,7 +33628,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33771,7 +33644,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33787,7 +33660,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33803,7 +33676,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33819,7 +33692,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33834,9 +33707,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33844,7 +33715,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33855,7 +33726,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33864,7 +33735,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33876,15 +33747,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>472</v>
+      <c r="H17" s="20">
+        <v>100501589094</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33980,7 +33851,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34007,7 +33878,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -34023,7 +33894,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34326,7 +34197,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153776</v>
+        <v>20153773</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -34350,7 +34221,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34366,7 +34237,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34382,7 +34253,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34398,7 +34269,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34414,7 +34285,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34429,9 +34300,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>479</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34439,7 +34308,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34450,7 +34319,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34459,7 +34328,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34471,7 +34340,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -34479,7 +34348,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34575,7 +34444,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34602,7 +34471,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -34618,7 +34487,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34921,7 +34790,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153771</v>
+        <v>20153765</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -34945,7 +34814,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34961,7 +34830,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34977,7 +34846,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34993,7 +34862,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35009,7 +34878,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35024,9 +34893,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35034,7 +34901,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35045,7 +34912,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35054,7 +34921,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35066,7 +34933,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35074,7 +34941,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35170,7 +35037,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35197,7 +35064,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -35213,7 +35080,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -35516,7 +35383,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153778</v>
+        <v>20153761</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -35540,7 +35407,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -35556,7 +35423,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -35572,7 +35439,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -35588,7 +35455,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35604,7 +35471,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35619,9 +35486,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35629,7 +35494,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35640,7 +35505,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35649,7 +35514,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35661,15 +35526,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>100501589094</v>
+      <c r="H17" s="20" t="s">
+        <v>476</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35765,7 +35630,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35792,7 +35657,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -35808,7 +35673,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36111,7 +35976,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153773</v>
+        <v>20153751</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -36135,7 +36000,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36151,7 +36016,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36167,7 +36032,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -36183,7 +36048,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -36199,7 +36064,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -36214,9 +36079,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -36224,7 +36087,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -36235,7 +36098,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -36244,7 +36107,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -36256,7 +36119,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -36264,7 +36127,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -36360,7 +36223,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -36387,7 +36250,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -36403,7 +36266,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36606,1196 +36469,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153761</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>500</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2005</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153751</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>507</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2007</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -37819,7 +36492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37952,7 +36625,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153765</v>
+        <v>20153753</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -37976,7 +36649,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -37992,7 +36665,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -38008,7 +36681,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -38024,7 +36697,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -38040,7 +36713,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -38055,9 +36728,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -38065,7 +36736,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -38076,7 +36747,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -38085,7 +36756,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -38097,7 +36768,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38105,7 +36776,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -38201,7 +36872,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -38228,7 +36899,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -38244,7 +36915,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -38547,7 +37218,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153753</v>
+        <v>20153756</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -38571,7 +37242,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -38587,7 +37258,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -38603,7 +37274,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -38619,7 +37290,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -38635,7 +37306,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -38650,9 +37321,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -38660,7 +37329,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -38671,7 +37340,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -38680,7 +37349,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -38692,7 +37361,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38823,7 +37492,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -39142,7 +37811,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153756</v>
+        <v>20153769</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -39245,9 +37914,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -39255,7 +37922,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -39266,7 +37933,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -39275,7 +37942,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -39287,7 +37954,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -39295,7 +37962,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -39391,7 +38058,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -39418,7 +38085,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -39434,7 +38101,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
